--- a/demo/calendar2.xlsx
+++ b/demo/calendar2.xlsx
@@ -265,24 +265,26 @@
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00FF0000"/>
-      <sz val="20"/>
+      <color rgb="00000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
-      <color rgb="00000000"/>
-      <sz val="20"/>
+      <color rgb="00FF0000"/>
+      <sz val="24"/>
     </font>
     <font>
       <name val="Comic Sans MS"/>
       <color rgb="000000FF"/>
-      <sz val="20"/>
+      <sz val="24"/>
     </font>
     <font>
       <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,25 +350,25 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,9 +794,9 @@
       <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
       <c r="L4" s="10" t="s">
         <v>17</v>
       </c>
@@ -968,7 +970,7 @@
       <c r="J8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1110,10 +1112,10 @@
       <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>38</v>
       </c>
@@ -1123,10 +1125,10 @@
       <c r="K12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1232,9 +1234,9 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
       <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
@@ -1247,12 +1249,12 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n"/>
       <c r="O4" s="10" t="s">
         <v>46</v>
       </c>
@@ -1582,7 +1584,7 @@
       <c r="F12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="10" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>35</v>
       </c>
@@ -1620,12 +1622,12 @@
       <c r="I14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="10" t="n"/>
-      <c r="M14" s="10" t="n"/>
-      <c r="N14" s="10" t="n"/>
-      <c r="O14" s="10" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="11" t="n"/>
+      <c r="L14" s="11" t="n"/>
+      <c r="M14" s="11" t="n"/>
+      <c r="N14" s="11" t="n"/>
+      <c r="O14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1739,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
@@ -1758,10 +1760,10 @@
       <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
       <c r="M4" s="10" t="s">
         <v>52</v>
       </c>
@@ -2085,9 +2087,9 @@
       <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10" t="n"/>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>39</v>
       </c>
@@ -2106,7 +2108,7 @@
       <c r="N12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="10" t="n"/>
+      <c r="O12" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2214,17 +2216,17 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
       <c r="G4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
       <c r="K4" s="10" t="s">
         <v>58</v>
       </c>
@@ -2582,8 +2584,8 @@
       <c r="M12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="n">
@@ -2605,11 +2607,11 @@
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2723,11 +2725,11 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
       <c r="F4" s="10" t="s">
         <v>62</v>
       </c>
@@ -3087,10 +3089,10 @@
       <c r="K12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="n"/>
-      <c r="N12" s="10" t="n"/>
-      <c r="O12" s="10" t="n"/>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9" t="n"/>
@@ -3102,13 +3104,13 @@
       <c r="G13" s="9" t="n"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="10" t="n"/>
-      <c r="G14" s="10" t="n"/>
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3216,9 +3218,9 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
       <c r="D4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3231,11 +3233,11 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
       <c r="N4" s="10" t="s">
         <v>67</v>
       </c>
@@ -3563,8 +3565,8 @@
       <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
       <c r="I12" s="10" t="s">
         <v>13</v>
       </c>
@@ -3602,12 +3604,12 @@
       <c r="I14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="10" t="n"/>
-      <c r="M14" s="10" t="n"/>
-      <c r="N14" s="10" t="n"/>
-      <c r="O14" s="10" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="11" t="n"/>
+      <c r="L14" s="11" t="n"/>
+      <c r="M14" s="11" t="n"/>
+      <c r="N14" s="11" t="n"/>
+      <c r="O14" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
